--- a/test4.xlsx
+++ b/test4.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="44">
   <si>
     <t>recword</t>
   </si>
@@ -28,49 +28,49 @@
     <t>river</t>
   </si>
   <si>
-    <t>leap</t>
-  </si>
-  <si>
-    <t>root</t>
-  </si>
-  <si>
-    <t>reach</t>
-  </si>
-  <si>
-    <t>love</t>
+    <t>reap</t>
+  </si>
+  <si>
+    <t>loot</t>
+  </si>
+  <si>
+    <t>leach</t>
+  </si>
+  <si>
+    <t>rove</t>
   </si>
   <si>
     <t>race</t>
   </si>
   <si>
-    <t>land</t>
-  </si>
-  <si>
-    <t>life</t>
+    <t>rand</t>
+  </si>
+  <si>
+    <t>rife</t>
   </si>
   <si>
     <t>rap</t>
   </si>
   <si>
-    <t>lest</t>
-  </si>
-  <si>
-    <t>lope</t>
+    <t>rest</t>
+  </si>
+  <si>
+    <t>rope</t>
   </si>
   <si>
     <t>rock</t>
   </si>
   <si>
-    <t>link</t>
-  </si>
-  <si>
-    <t>lot</t>
+    <t>rink</t>
+  </si>
+  <si>
+    <t>rot</t>
   </si>
   <si>
     <t>reader</t>
   </si>
   <si>
-    <t>clown</t>
+    <t>crown</t>
   </si>
   <si>
     <t>grew</t>
@@ -79,13 +79,13 @@
     <t>arrive</t>
   </si>
   <si>
-    <t>collect</t>
+    <t>correct</t>
   </si>
   <si>
     <t>poor</t>
   </si>
   <si>
-    <t>heel</t>
+    <t>here</t>
   </si>
   <si>
     <t>over</t>
@@ -97,7 +97,22 @@
     <t>rake</t>
   </si>
   <si>
-    <t>prizes</t>
+    <t>belly</t>
+  </si>
+  <si>
+    <t>lather</t>
+  </si>
+  <si>
+    <t>rear</t>
+  </si>
+  <si>
+    <t>locket</t>
+  </si>
+  <si>
+    <t>rob</t>
+  </si>
+  <si>
+    <t>prices</t>
   </si>
   <si>
     <t>foil</t>
@@ -106,13 +121,13 @@
     <t>reviews</t>
   </si>
   <si>
-    <t>game</t>
+    <t>gain</t>
   </si>
   <si>
     <t>bag</t>
   </si>
   <si>
-    <t>safe</t>
+    <t>save</t>
   </si>
   <si>
     <t>rang</t>
@@ -121,16 +136,13 @@
     <t>van</t>
   </si>
   <si>
-    <t>bail</t>
+    <t>vail</t>
   </si>
   <si>
     <t>day</t>
   </si>
   <si>
-    <t>pace</t>
-  </si>
-  <si>
-    <t>vlog</t>
+    <t>face</t>
   </si>
 </sst>
 </file>
@@ -144,7 +156,6 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
       <name val="Helvetica"/>
     </font>
   </fonts>
@@ -167,13 +178,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -200,6 +212,11 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
@@ -208,6 +225,11 @@
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
@@ -216,6 +238,11 @@
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
@@ -224,6 +251,11 @@
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
@@ -232,6 +264,11 @@
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
@@ -240,6 +277,11 @@
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
@@ -248,6 +290,11 @@
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
@@ -256,6 +303,11 @@
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
@@ -264,6 +316,11 @@
       <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
@@ -272,6 +329,11 @@
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
@@ -280,6 +342,11 @@
       <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
@@ -288,6 +355,11 @@
       <c r="B12" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
@@ -296,6 +368,11 @@
       <c r="B13" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
@@ -304,6 +381,11 @@
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
@@ -312,6 +394,11 @@
       <c r="B15" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
@@ -320,6 +407,11 @@
       <c r="B16" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
@@ -328,6 +420,11 @@
       <c r="B17" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
@@ -336,6 +433,11 @@
       <c r="B18" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
@@ -344,6 +446,11 @@
       <c r="B19" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
@@ -352,6 +459,11 @@
       <c r="B20" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
@@ -360,6 +472,11 @@
       <c r="B21" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
@@ -368,6 +485,11 @@
       <c r="B22" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
@@ -376,6 +498,11 @@
       <c r="B23" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
@@ -384,6 +511,11 @@
       <c r="B24" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
@@ -392,6 +524,11 @@
       <c r="B25" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
@@ -400,94 +537,206 @@
       <c r="B26" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>29</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>29</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>29</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>29</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>29</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>29</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="1"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>29</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="1"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>29</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="1"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>29</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="1"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>29</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="1"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>29</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="1"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
